--- a/graph_data.xlsx
+++ b/graph_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13700" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="13380" yWindow="980" windowWidth="18820" windowHeight="18340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Test 1</t>
   </si>
@@ -90,21 +90,6 @@
   </si>
   <si>
     <t>Test 20</t>
-  </si>
-  <si>
-    <t>Test 21</t>
-  </si>
-  <si>
-    <t>Test 22</t>
-  </si>
-  <si>
-    <t>Test 23</t>
-  </si>
-  <si>
-    <t>Both turn</t>
-  </si>
-  <si>
-    <t>Both jump</t>
   </si>
   <si>
     <t>Maia up</t>
@@ -159,10 +144,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,13 +194,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,7 +488,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,8 +500,8 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -491,15 +509,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -507,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -515,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -523,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -531,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -547,15 +565,15 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -571,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -579,15 +597,15 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,15 +621,15 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,40 +653,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
